--- a/video_resources/introduction/intro_youtube_links.xlsx
+++ b/video_resources/introduction/intro_youtube_links.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\dev\FakeMind-ML4VA-Project\video_resources\introduction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75C3497-A6E4-4186-BCE0-046BEE264F27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF2E863-B041-44BA-A013-50B11DCD1A6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1785" yWindow="3690" windowWidth="38700" windowHeight="15435" xr2:uid="{EE01F732-2BDD-48AF-B9F4-2D25E04C440F}"/>
+    <workbookView xWindow="0" yWindow="3690" windowWidth="38700" windowHeight="15435" xr2:uid="{EE01F732-2BDD-48AF-B9F4-2D25E04C440F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>https://www.youtube.com/watch?v=jAu1CHRn9Qk</t>
   </si>
@@ -47,7 +47,16 @@
     <t>https://data.news-leader.com/drought/virginia/51/</t>
   </si>
   <si>
-    <t>https://www.wsls.com/video/weather/2023/11/30/water-levels-down-amid-drought-in-virginia/</t>
+    <t>https://www.youtube.com/watch?v=3Lzl8YNh6_c&amp;t=4s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-s4XasiSPmw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MLN3_M_3w9k</t>
+  </si>
+  <si>
+    <t>https://www.drought.gov/national#:~:text=As%20of%20November%2014%2C%202023,to%20the%20U.S.%20Drought%20Monitor.</t>
   </si>
 </sst>
 </file>
@@ -410,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119398CC-D30C-44F2-B5F7-AECFAA0DFDD4}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,23 +436,43 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{A1152490-EA0B-471B-B94D-CA2E68F91F18}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{8FFFEF79-14B8-41F3-879E-B040DF20634A}"/>
+    <hyperlink ref="A2" r:id="rId3" xr:uid="{37BF503E-ED41-4540-B7AB-E6A86EDD797B}"/>
+    <hyperlink ref="A3" r:id="rId4" xr:uid="{EE46B2DF-B147-40D2-A903-94982F185CE3}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{49432D5F-B1E6-4713-BB94-405CAD62F946}"/>
+    <hyperlink ref="A7" r:id="rId6" location=":~:text=As%20of%20November%2014%2C%202023,to%20the%20U.S.%20Drought%20Monitor." xr:uid="{CFADB1F1-6CA7-49A3-B8A3-F86A6413E131}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
